--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\konst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\104481\konst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A537B23D-8DF0-4908-AD2A-216C289AA5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>строка</t>
   </si>
@@ -61,12 +60,21 @@
   </si>
   <si>
     <t>2.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,15 +104,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -384,17 +396,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" customWidth="1"/>
@@ -415,7 +428,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -432,13 +445,13 @@
       <c r="C2">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>45035</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>45067.96875</v>
       </c>
     </row>
@@ -452,13 +465,13 @@
       <c r="C3">
         <v>23</v>
       </c>
-      <c r="D3" s="2">
-        <v>44958</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
         <v>45281</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>45067.625</v>
       </c>
     </row>
@@ -472,13 +485,13 @@
       <c r="C4">
         <v>45</v>
       </c>
-      <c r="D4">
-        <v>6.9</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1">
         <v>45046</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>45070.500138888892</v>
       </c>
     </row>
